--- a/data/mata_kuliah.xlsx
+++ b/data/mata_kuliah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UAS-Webpro-Kel-5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94877E2C-2187-4967-95F2-ECE8B4280596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE38C4E6-95BF-4B58-BE34-530FDD8B501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04FC0BAB-F141-46FC-ADBC-330410693479}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>MTKL040</t>
-  </si>
-  <si>
-    <t>MTKL041</t>
   </si>
   <si>
     <t>MTKL042</t>
@@ -670,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1637A6-6AD1-4854-A60F-740289C4ADA8}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="124" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1014,7 @@
         <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1022,7 @@
         <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1030,7 @@
         <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +1038,7 @@
         <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1049,14 +1046,6 @@
         <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
